--- a/Database/CustomerCharts/f1ea9692-1efa-11ea-abd9-db84c14c82c2.xlsx
+++ b/Database/CustomerCharts/f1ea9692-1efa-11ea-abd9-db84c14c82c2.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -347,11 +346,11 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -773,7 +772,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Settled</t>
+          <t>Paid</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -793,7 +792,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Settled</t>
+          <t>Paid</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">

--- a/Database/CustomerCharts/f1ea9692-1efa-11ea-abd9-db84c14c82c2.xlsx
+++ b/Database/CustomerCharts/f1ea9692-1efa-11ea-abd9-db84c14c82c2.xlsx
@@ -379,7 +379,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Loan Amount :- 12553</t>
+          <t>Loan Amount :- 23000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1743.472222222222</v>
+        <v>3194.444444444444</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>

--- a/Database/CustomerCharts/f1ea9692-1efa-11ea-abd9-db84c14c82c2.xlsx
+++ b/Database/CustomerCharts/f1ea9692-1efa-11ea-abd9-db84c14c82c2.xlsx
@@ -379,7 +379,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Loan Amount :- 23000</t>
+          <t>Loan Amount :- 30000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3194.444444444444</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
